--- a/class1/平台投放数据.xlsx
+++ b/class1/平台投放数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11400" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="平台一" sheetId="2" r:id="rId1"/>
@@ -156,12 +156,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -271,22 +271,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,7 +295,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,23 +304,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -698,16 +698,16 @@
         <v>12.1</v>
       </c>
       <c r="J2" s="9">
-        <v>32</v>
+        <v>9648</v>
       </c>
       <c r="K2" s="11">
-        <v>5.4749999999999996</v>
+        <v>45.897266544904284</v>
       </c>
       <c r="L2" s="9">
         <v>1</v>
       </c>
       <c r="M2" s="9">
-        <f>D2/L2</f>
+        <f t="shared" ref="M2:M46" si="0">D2/L2</f>
         <v>121</v>
       </c>
       <c r="N2" s="9"/>
@@ -735,28 +735,28 @@
         <v>800</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G46" si="0">F3/E3</f>
+        <f t="shared" ref="G3:G46" si="1">F3/E3</f>
         <v>7.2727272727272724E-2</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" ref="H3:H46" si="1">D3/F3</f>
+        <f t="shared" ref="H3:H46" si="2">D3/F3</f>
         <v>0.1525</v>
       </c>
       <c r="I3" s="11">
-        <f t="shared" ref="I3:I46" si="2">D3/E3*1000</f>
+        <f t="shared" ref="I3:I46" si="3">D3/E3*1000</f>
         <v>11.09090909090909</v>
       </c>
       <c r="J3" s="9">
-        <v>209</v>
+        <v>2098</v>
       </c>
       <c r="K3" s="11">
-        <v>4.7645454545454502</v>
+        <v>42.934792522514002</v>
       </c>
       <c r="L3" s="9">
         <v>2</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3:M46" si="3">D3/L3</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="N3" s="16"/>
@@ -784,35 +784,37 @@
         <v>900</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13666666666666666</v>
       </c>
       <c r="I4" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.25</v>
       </c>
       <c r="J4" s="9">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="K4" s="11">
-        <v>10.989010989011</v>
+        <v>48.510322957200188</v>
       </c>
       <c r="L4" s="9">
         <v>3</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="10">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A5" s="17">
+      <c r="A5" s="19">
         <v>43609</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -831,35 +833,37 @@
         <v>1000</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.124</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5384615384615383</v>
       </c>
       <c r="J5" s="9">
-        <v>127</v>
+        <v>8614</v>
       </c>
       <c r="K5" s="11">
-        <v>6.3081889763779504</v>
+        <v>26.409207336420891</v>
       </c>
       <c r="L5" s="9">
         <v>4</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="N5" s="16"/>
-      <c r="O5" s="10"/>
+      <c r="O5" s="10">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
@@ -876,35 +880,37 @@
         <v>1100</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.857142857142857E-2</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9285714285714288</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>4219</v>
       </c>
       <c r="K6" s="11">
-        <v>0</v>
+        <v>44.17589373827532</v>
       </c>
       <c r="L6" s="9">
         <v>5</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N6" s="16"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="10">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A7" s="17">
+      <c r="A7" s="19">
         <v>43610</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -923,35 +929,37 @@
         <v>1200</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.105</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
       <c r="J7" s="9">
-        <v>53</v>
+        <v>3520</v>
       </c>
       <c r="K7" s="11">
-        <v>9.3109433962264099</v>
+        <v>23.710832376826257</v>
       </c>
       <c r="L7" s="9">
         <v>6</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="10">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
@@ -968,35 +976,37 @@
         <v>1300</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7692307692307689E-2</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9375</v>
       </c>
       <c r="J8" s="9">
-        <v>15</v>
+        <v>7896</v>
       </c>
       <c r="K8" s="11">
-        <v>25.184666666666701</v>
+        <v>8.0814905539859652</v>
       </c>
       <c r="L8" s="9">
         <v>7</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18.142857142857142</v>
       </c>
       <c r="N8" s="16"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>43611</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1015,35 +1025,37 @@
         <v>1400</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2352941176470587E-2</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1428571428571428E-2</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5294117647058822</v>
       </c>
       <c r="J9" s="9">
-        <v>117</v>
+        <v>5017</v>
       </c>
       <c r="K9" s="11">
-        <v>5.0595726495726501</v>
+        <v>15.456419926290799</v>
       </c>
       <c r="L9" s="9">
         <v>8</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1060,35 +1072,37 @@
         <v>1500</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.166666666666667</v>
       </c>
       <c r="J10" s="9">
-        <v>21</v>
+        <v>9269</v>
       </c>
       <c r="K10" s="11">
-        <v>25.044761904761899</v>
+        <v>31.103589022964528</v>
       </c>
       <c r="L10" s="9">
         <v>9</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
       <c r="N10" s="16"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="10">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>43612</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1107,35 +1121,37 @@
         <v>1600</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4210526315789472E-2</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8421052631578947</v>
       </c>
       <c r="J11" s="9">
-        <v>167</v>
+        <v>807</v>
       </c>
       <c r="K11" s="11">
-        <v>5.9396407185628703</v>
+        <v>45.693519476322933</v>
       </c>
       <c r="L11" s="9">
         <v>10</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="N11" s="16"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -1152,35 +1168,37 @@
         <v>1700</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7058823529411763E-2</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5500000000000007</v>
       </c>
       <c r="J12" s="9">
-        <v>15</v>
+        <v>6069</v>
       </c>
       <c r="K12" s="11">
-        <v>24.494</v>
+        <v>7.5423392531726527</v>
       </c>
       <c r="L12" s="9">
         <v>11</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11.909090909090908</v>
       </c>
       <c r="N12" s="16"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="10">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A13" s="17">
+      <c r="A13" s="19">
         <v>43613</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1199,35 +1217,37 @@
         <v>1800</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3333333333333334E-2</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2857142857142856</v>
       </c>
       <c r="J13" s="9">
-        <v>83</v>
+        <v>2762</v>
       </c>
       <c r="K13" s="11">
-        <v>5.8865060240963798</v>
+        <v>16.91413914888847</v>
       </c>
       <c r="L13" s="9">
         <v>12</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N13" s="16"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -1244,35 +1264,37 @@
         <v>1900</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6363636363636365E-2</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0454545454545459</v>
       </c>
       <c r="J14" s="9">
-        <v>5</v>
+        <v>9915</v>
       </c>
       <c r="K14" s="11">
-        <v>29.457999999999998</v>
+        <v>44.484069974225562</v>
       </c>
       <c r="L14" s="9">
         <v>13</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10.23076923076923</v>
       </c>
       <c r="N14" s="16"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="10">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A15" s="17">
+      <c r="A15" s="19">
         <v>43614</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1291,35 +1313,37 @@
         <v>2000</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8260869565217392</v>
       </c>
       <c r="J15" s="9">
-        <v>77</v>
+        <v>8279</v>
       </c>
       <c r="K15" s="11">
-        <v>12.987012987012999</v>
+        <v>33.191706159848152</v>
       </c>
       <c r="L15" s="9">
         <v>14</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.5714285714285712</v>
       </c>
       <c r="N15" s="16"/>
-      <c r="O15" s="10"/>
+      <c r="O15" s="10">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1336,35 +1360,37 @@
         <v>2100</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4285714285714279E-2</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.625</v>
       </c>
       <c r="J16" s="9">
-        <v>91</v>
+        <v>10005</v>
       </c>
       <c r="K16" s="11">
-        <v>20.923516483516501</v>
+        <v>6.7046684013120803</v>
       </c>
       <c r="L16" s="9">
         <v>15</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N16" s="16"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="10">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>43615</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1383,35 +1409,37 @@
         <v>2200</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1818181818181821E-2</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.44</v>
       </c>
       <c r="J17" s="9">
-        <v>108</v>
+        <v>2966</v>
       </c>
       <c r="K17" s="11">
-        <v>9.2592592592592595</v>
+        <v>34.039503901869026</v>
       </c>
       <c r="L17" s="9">
         <v>16</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="N17" s="16"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="10">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1428,35 +1456,37 @@
         <v>2300</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8461538461538466E-2</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9565217391304347E-2</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2692307692307692</v>
       </c>
       <c r="J18" s="9">
-        <v>116</v>
+        <v>4336</v>
       </c>
       <c r="K18" s="11">
-        <v>8.6206896551724093</v>
+        <v>42.236535459292696</v>
       </c>
       <c r="L18" s="9">
         <v>17</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8.0588235294117645</v>
       </c>
       <c r="N18" s="16"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="10">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>43616</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1475,28 +1505,28 @@
         <v>2400</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1111111111111116</v>
       </c>
       <c r="J19" s="9">
-        <v>127</v>
+        <v>5343</v>
       </c>
       <c r="K19" s="11">
-        <v>7.8740157480314998</v>
+        <v>37.728548077932054</v>
       </c>
       <c r="L19" s="9">
         <v>18</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
       <c r="N19" s="16">
@@ -1508,7 +1538,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1525,28 +1555,28 @@
         <v>2500</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9642857142857144</v>
       </c>
       <c r="J20" s="9">
-        <v>38</v>
+        <v>6458</v>
       </c>
       <c r="K20" s="11">
-        <v>26.315789473684202</v>
+        <v>38.261206234524316</v>
       </c>
       <c r="L20" s="9">
         <v>19</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.3157894736842106</v>
       </c>
       <c r="N20" s="16">
@@ -1558,7 +1588,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A21" s="17">
+      <c r="A21" s="19">
         <v>43617</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1577,28 +1607,28 @@
         <v>2600</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9655172413793102E-2</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3846153846153849E-2</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8275862068965516</v>
       </c>
       <c r="J21" s="9">
-        <v>241</v>
+        <v>7390</v>
       </c>
       <c r="K21" s="11">
-        <v>8.2987551867219906</v>
+        <v>33.754151967437878</v>
       </c>
       <c r="L21" s="9">
         <v>20</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N21" s="16">
@@ -1610,7 +1640,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
@@ -1627,28 +1657,28 @@
         <v>2700</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2222222222222225E-2</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
       <c r="J22" s="9">
-        <v>255</v>
+        <v>9240</v>
       </c>
       <c r="K22" s="11">
-        <v>11.764705882352899</v>
+        <v>22.674793215840189</v>
       </c>
       <c r="L22" s="9">
         <v>21</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.7142857142857144</v>
       </c>
       <c r="N22" s="16">
@@ -1660,7 +1690,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A23" s="17">
+      <c r="A23" s="19">
         <v>43618</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1679,28 +1709,28 @@
         <v>2800</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0322580645161285E-2</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0714285714285712E-2</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.580645161290323</v>
       </c>
       <c r="J23" s="9">
-        <v>273</v>
+        <v>829</v>
       </c>
       <c r="K23" s="11">
-        <v>7.3260073260073204</v>
+        <v>1.7062380610279204</v>
       </c>
       <c r="L23" s="9">
         <v>22</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.4545454545454541</v>
       </c>
       <c r="N23" s="16">
@@ -1712,7 +1742,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
@@ -1729,28 +1759,28 @@
         <v>2900</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0624999999999997E-2</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9310344827586207E-2</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.46875</v>
       </c>
       <c r="J24" s="9">
-        <v>90</v>
+        <v>3314</v>
       </c>
       <c r="K24" s="11">
-        <v>33.3333333333333</v>
+        <v>5.5673370926605514</v>
       </c>
       <c r="L24" s="9">
         <v>23</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.2173913043478262</v>
       </c>
       <c r="N24" s="16">
@@ -1762,7 +1792,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A25" s="17">
+      <c r="A25" s="19">
         <v>43619</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1781,28 +1811,28 @@
         <v>3000</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3636363636363642</v>
       </c>
       <c r="J25" s="9">
-        <v>271</v>
+        <v>3248</v>
       </c>
       <c r="K25" s="11">
-        <v>9.2250922509225095</v>
+        <v>33.296461026051844</v>
       </c>
       <c r="L25" s="9">
         <v>24</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N25" s="16">
@@ -1814,7 +1844,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -1831,28 +1861,28 @@
         <v>3100</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1176470588235289E-2</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6774193548387098E-2</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2647058823529411</v>
       </c>
       <c r="J26" s="9">
-        <v>148</v>
+        <v>9993</v>
       </c>
       <c r="K26" s="11">
-        <v>16.891891891891898</v>
+        <v>15.450739868079854</v>
       </c>
       <c r="L26" s="9">
         <v>25</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
       <c r="N26" s="16">
@@ -1864,7 +1894,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A27" s="17">
+      <c r="A27" s="19">
         <v>43620</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1883,28 +1913,28 @@
         <v>3200</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1428571428571428E-2</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5624999999999999E-2</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1714285714285717</v>
       </c>
       <c r="J27" s="9">
-        <v>362</v>
+        <v>6336</v>
       </c>
       <c r="K27" s="11">
-        <v>6.9060773480663</v>
+        <v>38.632132209016113</v>
       </c>
       <c r="L27" s="9">
         <v>26</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.615384615384615</v>
       </c>
       <c r="N27" s="16">
@@ -1916,7 +1946,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
@@ -1933,28 +1963,28 @@
         <v>3300</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.166666666666666E-2</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4545454545454548E-2</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.083333333333333</v>
       </c>
       <c r="J28" s="9">
-        <v>165</v>
+        <v>8097</v>
       </c>
       <c r="K28" s="11">
-        <v>15.1515151515152</v>
+        <v>10.953471195615395</v>
       </c>
       <c r="L28" s="9">
         <v>27</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
       <c r="N28" s="16">
@@ -1966,7 +1996,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A29" s="17">
+      <c r="A29" s="19">
         <v>43621</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1985,28 +2015,28 @@
         <v>3400</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1891891891891897E-2</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3529411764705879E-2</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J29" s="9">
-        <v>748</v>
+        <v>8544</v>
       </c>
       <c r="K29" s="11">
-        <v>6.6844919786096302</v>
+        <v>10.519130973801566</v>
       </c>
       <c r="L29" s="9">
         <v>28</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.2857142857142856</v>
       </c>
       <c r="N29" s="16">
@@ -2018,7 +2048,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
@@ -2035,28 +2065,28 @@
         <v>3500</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2105263157894732E-2</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2571428571428573E-2</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9210526315789473</v>
       </c>
       <c r="J30" s="9">
-        <v>163</v>
+        <v>6582</v>
       </c>
       <c r="K30" s="11">
-        <v>15.3374233128834</v>
+        <v>28.310252373627232</v>
       </c>
       <c r="L30" s="9">
         <v>29</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.1379310344827589</v>
       </c>
       <c r="N30" s="16">
@@ -2068,7 +2098,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A31" s="17">
+      <c r="A31" s="19">
         <v>43622</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2087,28 +2117,28 @@
         <v>3600</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2307692307692313E-2</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8461538461538463</v>
       </c>
       <c r="J31" s="9">
-        <v>902</v>
+        <v>6890</v>
       </c>
       <c r="K31" s="11">
-        <v>5.5432372505543199</v>
+        <v>35.580766518814201</v>
       </c>
       <c r="L31" s="9">
         <v>30</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N31" s="16">
@@ -2120,7 +2150,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
@@ -2137,28 +2167,28 @@
         <v>3700</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.081081081081081E-2</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7750000000000004</v>
       </c>
       <c r="J32" s="9">
-        <v>156</v>
+        <v>428</v>
       </c>
       <c r="K32" s="11">
-        <v>15.756858974359</v>
+        <v>37.493970612969413</v>
       </c>
       <c r="L32" s="9">
         <v>31</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.870967741935484</v>
       </c>
       <c r="N32" s="16">
@@ -2170,7 +2200,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A33" s="17">
+      <c r="A33" s="19">
         <v>43623</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2189,28 +2219,28 @@
         <v>3800</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2682926829268292E-2</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7073170731707314</v>
       </c>
       <c r="J33" s="9">
-        <v>1904</v>
+        <v>3674</v>
       </c>
       <c r="K33" s="11">
-        <v>5.2521008403361398</v>
+        <v>42.338475725670314</v>
       </c>
       <c r="L33" s="9">
         <v>32</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="N33" s="16">
@@ -2222,7 +2252,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="8" t="s">
         <v>17</v>
       </c>
@@ -2239,28 +2269,28 @@
         <v>3900</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.285714285714286E-2</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9230769230769229E-2</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6428571428571428</v>
       </c>
       <c r="J34" s="9">
-        <v>216</v>
+        <v>5991</v>
       </c>
       <c r="K34" s="11">
-        <v>11.574074074074099</v>
+        <v>9.7137914687097098</v>
       </c>
       <c r="L34" s="9">
         <v>33</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.6363636363636367</v>
       </c>
       <c r="N34" s="16">
@@ -2272,7 +2302,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A35" s="17">
+      <c r="A35" s="19">
         <v>43624</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2291,28 +2321,28 @@
         <v>4000</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3023255813953487E-2</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.85E-2</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5813953488372094</v>
       </c>
       <c r="J35" s="9">
-        <v>1646</v>
+        <v>10600</v>
       </c>
       <c r="K35" s="11">
-        <v>6.07533414337788</v>
+        <v>46.170037825943652</v>
       </c>
       <c r="L35" s="9">
         <v>34</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5294117647058822</v>
       </c>
       <c r="N35" s="16">
@@ -2324,7 +2354,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A36" s="17"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="8" t="s">
         <v>17</v>
       </c>
@@ -2341,28 +2371,28 @@
         <v>4100</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3181818181818185E-2</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7804878048780487E-2</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5227272727272729</v>
       </c>
       <c r="J36" s="9">
-        <v>191</v>
+        <v>2800</v>
       </c>
       <c r="K36" s="11">
-        <v>13.0890052356021</v>
+        <v>23.769942949426635</v>
       </c>
       <c r="L36" s="9">
         <v>35</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.4285714285714288</v>
       </c>
       <c r="N36" s="16">
@@ -2374,7 +2404,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A37" s="17">
+      <c r="A37" s="19">
         <v>43625</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2393,28 +2423,28 @@
         <v>4200</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3333333333333338E-2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7142857142857144E-2</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4666666666666663</v>
       </c>
       <c r="J37" s="9">
-        <v>1275</v>
+        <v>4776</v>
       </c>
       <c r="K37" s="11">
-        <v>7.8431372549019596</v>
+        <v>43.285949786328658</v>
       </c>
       <c r="L37" s="9">
         <v>36</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
       <c r="N37" s="16">
@@ -2426,7 +2456,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="8" t="s">
         <v>17</v>
       </c>
@@ -2443,28 +2473,28 @@
         <v>4300</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3478260869565219E-2</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6511627906976742E-2</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4130434782608696</v>
       </c>
       <c r="J38" s="9">
-        <v>207</v>
+        <v>5780</v>
       </c>
       <c r="K38" s="11">
-        <v>12.077294685990299</v>
+        <v>14.551091536869421</v>
       </c>
       <c r="L38" s="9">
         <v>37</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.243243243243243</v>
       </c>
       <c r="N38" s="16">
@@ -2476,7 +2506,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A39" s="17">
+      <c r="A39" s="19">
         <v>43626</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2495,28 +2525,28 @@
         <v>4400</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3617021276595741E-2</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5909090909090911E-2</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3617021276595747</v>
       </c>
       <c r="J39" s="9">
-        <v>1364</v>
+        <v>1559</v>
       </c>
       <c r="K39" s="11">
-        <v>7.3313782991202396</v>
+        <v>3.2002627967319732</v>
       </c>
       <c r="L39" s="9">
         <v>38</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.1578947368421053</v>
       </c>
       <c r="N39" s="16">
@@ -2528,7 +2558,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A40" s="17"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="8" t="s">
         <v>17</v>
       </c>
@@ -2545,28 +2575,28 @@
         <v>4500</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3125</v>
       </c>
       <c r="J40" s="9">
-        <v>149</v>
+        <v>2679</v>
       </c>
       <c r="K40" s="11">
-        <v>16.778523489932901</v>
+        <v>37.09045654871602</v>
       </c>
       <c r="L40" s="9">
         <v>39</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.0769230769230766</v>
       </c>
       <c r="N40" s="16">
@@ -2578,7 +2608,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A41" s="17">
+      <c r="A41" s="19">
         <v>43627</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2597,28 +2627,28 @@
         <v>4600</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3877551020408165E-2</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4782608695652174E-2</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2653061224489797</v>
       </c>
       <c r="J41" s="9">
-        <v>686</v>
+        <v>2754</v>
       </c>
       <c r="K41" s="11">
-        <v>7.2886297376093303</v>
+        <v>16.259932601779813</v>
       </c>
       <c r="L41" s="9">
         <v>40</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N41" s="16">
@@ -2630,7 +2660,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A42" s="17"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="8" t="s">
         <v>17</v>
       </c>
@@ -2647,28 +2677,28 @@
         <v>4700</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4E-2</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4255319148936168E-2</v>
       </c>
       <c r="I42" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.22</v>
       </c>
       <c r="J42" s="9">
-        <v>173</v>
+        <v>8248</v>
       </c>
       <c r="K42" s="11">
-        <v>14.450867052023099</v>
+        <v>33.912927493249917</v>
       </c>
       <c r="L42" s="9">
         <v>41</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.9268292682926829</v>
       </c>
       <c r="N42" s="16">
@@ -2680,7 +2710,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A43" s="17">
+      <c r="A43" s="19">
         <v>43628</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2699,28 +2729,28 @@
         <v>4800</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4117647058823528E-2</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3750000000000002E-2</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1764705882352939</v>
       </c>
       <c r="J43" s="9">
-        <v>540</v>
+        <v>1325</v>
       </c>
       <c r="K43" s="11">
-        <v>10.328074074074101</v>
+        <v>49.874176437234141</v>
       </c>
       <c r="L43" s="9">
         <v>42</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.8571428571428572</v>
       </c>
       <c r="N43" s="16">
@@ -2732,7 +2762,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A44" s="17"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="8" t="s">
         <v>17</v>
       </c>
@@ -2749,28 +2779,28 @@
         <v>4900</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4230769230769229E-2</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3265306122448983E-2</v>
       </c>
       <c r="I44" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1346153846153846</v>
       </c>
       <c r="J44" s="9">
-        <v>69</v>
+        <v>4896</v>
       </c>
       <c r="K44" s="11">
-        <v>17.163623188405801</v>
+        <v>44.147632690699531</v>
       </c>
       <c r="L44" s="9">
         <v>43</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.7906976744186047</v>
       </c>
       <c r="N44" s="16">
@@ -2782,7 +2812,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A45" s="17">
+      <c r="A45" s="19">
         <v>43629</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -2801,35 +2831,35 @@
         <v>5000</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4339622641509441E-2</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0943396226415092</v>
       </c>
       <c r="J45" s="9">
-        <v>984</v>
+        <v>4586</v>
       </c>
       <c r="K45" s="11">
-        <v>6.9374288617886197</v>
+        <v>41.71545336271825</v>
       </c>
       <c r="L45" s="9">
         <v>44</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.7272727272727271</v>
       </c>
       <c r="N45" s="16"/>
       <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="A46" s="17"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="8" t="s">
         <v>17</v>
       </c>
@@ -2846,28 +2876,28 @@
         <v>5100</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2352941176470591E-2</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0555555555555558</v>
       </c>
       <c r="J46" s="9">
-        <v>141</v>
+        <v>5630</v>
       </c>
       <c r="K46" s="11">
-        <v>14.426524822695001</v>
+        <v>35.188459400750133</v>
       </c>
       <c r="L46" s="9">
         <v>45</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="N46" s="16"/>
@@ -2875,27 +2905,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2906,20 +2936,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
@@ -2960,10 +2990,10 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>43615</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C2">
@@ -2979,13 +3009,13 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>6.666666666666667</v>
+        <v>3.3880197019745455</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.34128643977522644</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -3001,10 +3031,10 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>43616</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C3">
@@ -3020,16 +3050,16 @@
         <v>1100</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>3.9079168888966209</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="I3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.16895381443373669</v>
       </c>
       <c r="J3">
-        <v>122.22222222222223</v>
+        <v>161</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3042,10 +3072,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>43617</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C4">
@@ -3061,16 +3091,16 @@
         <v>1200</v>
       </c>
       <c r="G4">
-        <v>4.8</v>
+        <v>1.6318186250900473</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.48156102263728151</v>
       </c>
       <c r="J4">
-        <v>26.666666666666668</v>
+        <v>163</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3083,10 +3113,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>43618</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C5">
@@ -3102,16 +3132,16 @@
         <v>1300</v>
       </c>
       <c r="G5">
-        <v>4.333333333333333</v>
+        <v>0.19859634313855845</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="I5">
-        <v>6.3333333333333339E-2</v>
+        <v>0.603213005800326</v>
       </c>
       <c r="J5">
-        <v>68.421052631578945</v>
+        <v>186</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -3127,10 +3157,10 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>43619</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C6">
@@ -3146,16 +3176,16 @@
         <v>1400</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>4.7188797440561023</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>0.12857142857142856</v>
+        <v>0.33795164602046457</v>
       </c>
       <c r="J6">
-        <v>31.111111111111111</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -3171,10 +3201,10 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>43620</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C7">
@@ -3190,16 +3220,16 @@
         <v>1500</v>
       </c>
       <c r="G7">
-        <v>3.75</v>
+        <v>4.1423975117165881</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>0.115</v>
+        <v>0.51521260827766879</v>
       </c>
       <c r="J7">
-        <v>32.608695652173914</v>
+        <v>118</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -3212,10 +3242,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>43621</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C8">
@@ -3231,16 +3261,16 @@
         <v>1600</v>
       </c>
       <c r="G8">
-        <v>3.5555555555555554</v>
+        <v>1.7721494336633792</v>
       </c>
       <c r="H8">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="I8">
-        <v>0.27777777777777779</v>
+        <v>0.77713212130145382</v>
       </c>
       <c r="J8">
-        <v>12.8</v>
+        <v>66</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -3253,10 +3283,10 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>43622</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C9">
@@ -3272,16 +3302,16 @@
         <v>1700</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
+        <v>4.2192920822757261</v>
       </c>
       <c r="H9">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>0.308</v>
+        <v>0.16156808924188415</v>
       </c>
       <c r="J9">
-        <v>11.038961038961039</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -3294,10 +3324,10 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>43623</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C10">
@@ -3313,16 +3343,16 @@
         <v>1800</v>
       </c>
       <c r="G10">
-        <v>3.2727272727272729</v>
+        <v>3.8899505916412376</v>
       </c>
       <c r="H10">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="I10">
-        <v>0.45090909090909093</v>
+        <v>0.23186080347861537</v>
       </c>
       <c r="J10">
-        <v>7.258064516129032</v>
+        <v>182</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -3335,10 +3365,10 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>43624</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C11">
@@ -3354,16 +3384,16 @@
         <v>1900</v>
       </c>
       <c r="G11">
-        <v>3.1666666666666665</v>
+        <v>0.78312605276452951</v>
       </c>
       <c r="H11">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="I11">
-        <v>0.36666666666666664</v>
+        <v>0.57929562583088012</v>
       </c>
       <c r="J11">
-        <v>8.6363636363636367</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -3376,10 +3406,10 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>43625</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C12">
@@ -3395,16 +3425,16 @@
         <v>2000</v>
       </c>
       <c r="G12">
-        <v>3.0769230769230771</v>
+        <v>3.722850386542766</v>
       </c>
       <c r="H12">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="I12">
-        <v>0.34923076923076923</v>
+        <v>0.85898411033440059</v>
       </c>
       <c r="J12">
-        <v>8.8105726872246688</v>
+        <v>171</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -3417,10 +3447,10 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>43626</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C13">
@@ -3436,16 +3466,16 @@
         <v>2100</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4.4794121820466177</v>
       </c>
       <c r="H13">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="I13">
-        <v>0.34142857142857141</v>
+        <v>0.96241782385179231</v>
       </c>
       <c r="J13">
-        <v>8.7866108786610884</v>
+        <v>81</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -3458,10 +3488,10 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>43627</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C14">
@@ -3477,16 +3507,16 @@
         <v>2200</v>
       </c>
       <c r="G14">
-        <v>2.9333333333333331</v>
+        <v>2.8394754352795406</v>
       </c>
       <c r="H14">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="I14">
-        <v>0.24133333333333334</v>
+        <v>0.79977306604528409</v>
       </c>
       <c r="J14">
-        <v>12.154696132596685</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -3499,10 +3529,10 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>43628</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C15">
@@ -3518,16 +3548,16 @@
         <v>2300</v>
       </c>
       <c r="G15">
-        <v>2.875</v>
+        <v>0.75355699217575289</v>
       </c>
       <c r="H15">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="I15">
-        <v>0.20499999999999999</v>
+        <v>0.2622840835787974</v>
       </c>
       <c r="J15">
-        <v>14.024390243902438</v>
+        <v>198</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -3540,10 +3570,10 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>43629</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C16">
@@ -3559,16 +3589,16 @@
         <v>2400</v>
       </c>
       <c r="G16">
-        <v>2.8235294117647061</v>
+        <v>1.8685009337878959</v>
       </c>
       <c r="H16">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="I16">
-        <v>0.30352941176470588</v>
+        <v>0.66006323047325732</v>
       </c>
       <c r="J16">
-        <v>9.3023255813953494</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>14</v>
